--- a/DATA_goal/Junction_Flooding_331.xlsx
+++ b/DATA_goal/Junction_Flooding_331.xlsx
@@ -448,7 +448,7 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
@@ -457,19 +457,19 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>45012.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.3</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.21</v>
+        <v>42.1</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.48</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.86</v>
+        <v>198.65</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.58</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.54</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.15</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.51</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.76</v>
+        <v>37.61</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45012.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.57</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.32</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="L3" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>11.86</v>
+        <v>118.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.32</v>
+        <v>23.22</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.82</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45012.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.23</v>
+        <v>32.33</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.61</v>
+        <v>26.06</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.45</v>
+        <v>44.48</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>17.01</v>
+        <v>170.07</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.26</v>
+        <v>32.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.68</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.55</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.04</v>
+        <v>40.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45012.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.65</v>
+        <v>36.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.97</v>
+        <v>29.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.11</v>
+        <v>51.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.48</v>
+        <v>24.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.65</v>
+        <v>46.48</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_331.xlsx
+++ b/DATA_goal/Junction_Flooding_331.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45012.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.3</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.41</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.82</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.93</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.61</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.1</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.85</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.48</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.34</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.39</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.23</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.65</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.58</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.54</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.15</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.51</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.83</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.03</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.61</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.76</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45012.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.57</v>
+        <v>10.569</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.22</v>
+        <v>7.216</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.616</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.96</v>
+        <v>17.956</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.32</v>
+        <v>8.318</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.25</v>
+        <v>33.255</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.8</v>
+        <v>12.798</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.41</v>
+        <v>5.414</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.114000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.471</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.66</v>
+        <v>2.659</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.57</v>
+        <v>11.566</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.3</v>
+        <v>7.301</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.481</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.913</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.58</v>
+        <v>118.581</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.22</v>
+        <v>23.216</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.63</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.186</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.82</v>
+        <v>7.818</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.751</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.06</v>
+        <v>16.059</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.2</v>
+        <v>6.197</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.26</v>
+        <v>7.259</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.57</v>
+        <v>30.569</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.12</v>
+        <v>4.118</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.545</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>45012.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>10.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.271</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.33</v>
+        <v>32.328</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>26.06</v>
+        <v>26.057</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>11.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>44.48</v>
+        <v>44.476</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.87</v>
+        <v>7.875</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.56</v>
+        <v>11.558</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.96</v>
+        <v>12.963</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.6</v>
+        <v>13.604</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.74</v>
+        <v>3.743</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.024</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.785</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>170.07</v>
+        <v>170.069</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.57</v>
+        <v>32.565</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.68</v>
+        <v>21.677</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.33</v>
+        <v>11.327</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.97</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.65</v>
+        <v>21.652</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.535</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.02</v>
+        <v>10.019</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.55</v>
+        <v>13.554</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.42</v>
+        <v>40.416</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.96</v>
+        <v>5.962</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>13.45</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45012.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.73</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_331.xlsx
+++ b/DATA_goal/Junction_Flooding_331.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45012.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.29</v>
+        <v>12.287</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>36.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.68</v>
+        <v>29.679</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.11</v>
+        <v>51.109</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.98</v>
+        <v>8.984999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.24</v>
+        <v>13.237</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.44</v>
+        <v>15.436</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.68</v>
+        <v>18.676</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.18</v>
+        <v>11.175</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.97</v>
+        <v>192.968</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.8</v>
+        <v>36.799</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.64</v>
+        <v>24.636</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.9</v>
+        <v>12.897</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.06</v>
+        <v>2.056</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.85</v>
+        <v>24.845</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.56</v>
+        <v>9.564</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.24</v>
+        <v>11.236</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.48</v>
+        <v>46.484</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45012.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.73</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_331.xlsx
+++ b/DATA_goal/Junction_Flooding_331.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45012.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.815</v>
+        <v>16.81</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.287</v>
+        <v>12.29</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.119</v>
+        <v>1.12</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>36.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.679</v>
+        <v>29.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.232</v>
+        <v>13.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.109</v>
+        <v>51.11</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.984999999999999</v>
+        <v>8.98</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.237</v>
+        <v>13.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.436</v>
+        <v>15.44</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.159</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.676</v>
+        <v>18.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.175</v>
+        <v>11.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.968</v>
+        <v>192.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.799</v>
+        <v>36.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.146</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.636</v>
+        <v>24.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.897</v>
+        <v>12.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.056</v>
+        <v>2.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.845</v>
+        <v>24.85</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.728</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.564</v>
+        <v>9.56</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.236</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.366</v>
+        <v>15.37</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.484</v>
+        <v>46.48</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.185</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45012.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.73</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>43.43</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>
